--- a/Paperless_priceLogicRetesting.xlsx
+++ b/Paperless_priceLogicRetesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Paperless" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
   <si>
     <t>Created By:-</t>
   </si>
@@ -928,15 +928,6 @@
   </si>
   <si>
     <t>Developers Comments</t>
-  </si>
-  <si>
-    <t>Testers Comments</t>
-  </si>
-  <si>
-    <t>Open_Date</t>
-  </si>
-  <si>
-    <t>Close_Date</t>
   </si>
   <si>
     <t>Bug ID_1</t>
@@ -1090,13 +1081,25 @@
     <t xml:space="preserve">Sakshi </t>
   </si>
   <si>
-    <t>TASK#13202</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Retesting Status</t>
+  </si>
+  <si>
+    <t>Retesting Power ID</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>TASK#13179</t>
+  </si>
+  <si>
+    <t>Power _ID</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,6 +1338,24 @@
         <bgColor rgb="FF95B3D7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1364,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,120 +1409,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,9 +1538,14 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1796,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,131 +1846,147 @@
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="43">
         <v>44170</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="H4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="L5" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1953,7 +2001,7 @@
       <c r="E6" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -1963,9 +2011,15 @@
       <c r="K6" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="L6" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1976,7 +2030,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="6"/>
@@ -1988,9 +2042,15 @@
       <c r="K7" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="L7" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2002,9 +2062,9 @@
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
@@ -2013,9 +2073,15 @@
       <c r="K8" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="L8" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2027,11 +2093,11 @@
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="6" t="s">
         <v>41</v>
       </c>
@@ -2040,9 +2106,15 @@
       <c r="K9" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="L9" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2054,27 +2126,33 @@
       <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2082,7 +2160,7 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="8"/>
@@ -2090,22 +2168,28 @@
       <c r="K11" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="L11" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="16" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="8"/>
@@ -2113,22 +2197,28 @@
       <c r="K12" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="L12" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="16" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="8"/>
@@ -2136,24 +2226,30 @@
       <c r="K13" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="L13" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="8"/>
@@ -2161,24 +2257,30 @@
       <c r="K14" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="L14" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="8"/>
@@ -2186,24 +2288,30 @@
       <c r="K15" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="L15" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="38" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="38" t="s">
         <v>55</v>
       </c>
       <c r="I16" s="8"/>
@@ -2211,24 +2319,30 @@
       <c r="K16" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="L16" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="38" t="s">
         <v>68</v>
       </c>
       <c r="I17" s="8"/>
@@ -2236,24 +2350,30 @@
       <c r="K17" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="L17" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="38" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="38" t="s">
         <v>55</v>
       </c>
       <c r="I18" s="8"/>
@@ -2261,24 +2381,30 @@
       <c r="K18" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="L18" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="38" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="8"/>
@@ -2286,24 +2412,30 @@
       <c r="K19" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="L19" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="38" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="8"/>
@@ -2311,28 +2443,34 @@
       <c r="K20" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="L20" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>215</v>
+      <c r="E21" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="8"/>
@@ -2340,24 +2478,30 @@
       <c r="K21" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="L21" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="38" t="s">
         <v>183</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="38" t="s">
         <v>77</v>
       </c>
       <c r="I22" s="8"/>
@@ -2365,22 +2509,28 @@
       <c r="K22" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="L22" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38" t="s">
         <v>60</v>
       </c>
       <c r="I23" s="8"/>
@@ -2388,24 +2538,30 @@
       <c r="K23" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="L23" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="38" t="s">
         <v>63</v>
       </c>
       <c r="I24" s="8"/>
@@ -2413,24 +2569,30 @@
       <c r="K24" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="L24" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M24" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="38" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="8"/>
@@ -2438,24 +2600,30 @@
       <c r="K25" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="L25" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M25" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="38" t="s">
         <v>65</v>
       </c>
       <c r="I26" s="8"/>
@@ -2463,24 +2631,30 @@
       <c r="K26" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="L26" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M26" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="38" t="s">
         <v>72</v>
       </c>
       <c r="I27" s="8"/>
@@ -2488,24 +2662,30 @@
       <c r="K27" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="L27" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M27" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="38" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="8"/>
@@ -2513,18 +2693,24 @@
       <c r="K28" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="L28" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="8"/>
@@ -2532,7 +2718,7 @@
       <c r="G29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="38" t="s">
         <v>83</v>
       </c>
       <c r="I29" s="8"/>
@@ -2540,72 +2726,90 @@
       <c r="K29" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="L29" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M29" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>216</v>
+      <c r="D30" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="3" t="s">
-        <v>217</v>
+      <c r="H30" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="L30" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M30" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>218</v>
+      <c r="D31" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="3" t="s">
-        <v>220</v>
+      <c r="H31" s="38" t="s">
+        <v>217</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="L31" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M31" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="38" t="s">
         <v>86</v>
       </c>
       <c r="I32" s="8"/>
@@ -2613,26 +2817,32 @@
       <c r="K32" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="L32" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M32" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>206</v>
+      <c r="E33" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="38" t="s">
         <v>184</v>
       </c>
       <c r="I33" s="8"/>
@@ -2640,22 +2850,28 @@
       <c r="K33" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="L33" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="38" t="s">
         <v>185</v>
       </c>
       <c r="I34" s="8"/>
@@ -2663,24 +2879,30 @@
       <c r="K34" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="L34" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M34" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="12" t="s">
         <v>91</v>
       </c>
       <c r="I35" s="8"/>
@@ -2688,22 +2910,28 @@
       <c r="K35" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="L35" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="12" t="s">
         <v>92</v>
       </c>
       <c r="I36" s="8"/>
@@ -2711,24 +2939,30 @@
       <c r="K36" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="L36" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I37" s="8"/>
@@ -2736,24 +2970,30 @@
       <c r="K37" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="L37" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M37" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="12" t="s">
         <v>97</v>
       </c>
       <c r="I38" s="8"/>
@@ -2761,24 +3001,30 @@
       <c r="K38" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="L38" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M38" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I39" s="8"/>
@@ -2786,18 +3032,24 @@
       <c r="K39" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="L39" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E40" s="8"/>
@@ -2809,24 +3061,30 @@
       <c r="K40" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="L40" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M40" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="13" t="s">
         <v>103</v>
       </c>
       <c r="I41" s="8"/>
@@ -2834,26 +3092,32 @@
       <c r="K41" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="L41" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>221</v>
+      <c r="E42" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="13" t="s">
         <v>104</v>
       </c>
       <c r="I42" s="8"/>
@@ -2861,24 +3125,30 @@
       <c r="K42" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="L42" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M42" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="38" t="s">
         <v>107</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="13" t="s">
         <v>108</v>
       </c>
       <c r="I43" s="8"/>
@@ -2886,26 +3156,32 @@
       <c r="K43" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="L43" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>205</v>
+      <c r="E44" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="13" t="s">
         <v>109</v>
       </c>
       <c r="I44" s="8"/>
@@ -2913,24 +3189,30 @@
       <c r="K44" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="L44" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M44" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="12" t="s">
         <v>113</v>
       </c>
       <c r="I45" s="8"/>
@@ -2938,24 +3220,30 @@
       <c r="K45" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="L45" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14" t="s">
+      <c r="D46" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="12" t="s">
         <v>115</v>
       </c>
       <c r="I46" s="8"/>
@@ -2963,24 +3251,30 @@
       <c r="K46" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="L46" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M46" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I47" s="8"/>
@@ -2988,26 +3282,32 @@
       <c r="K47" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="L47" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M47" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="38" t="s">
         <v>122</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="13" t="s">
         <v>120</v>
       </c>
       <c r="I48" s="8"/>
@@ -3015,24 +3315,30 @@
       <c r="K48" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="L48" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M48" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="12" t="s">
         <v>113</v>
       </c>
       <c r="I49" s="8"/>
@@ -3040,24 +3346,30 @@
       <c r="K49" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" s="18" t="s">
+      <c r="L49" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="14" t="s">
+      <c r="D50" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="12" t="s">
         <v>125</v>
       </c>
       <c r="I50" s="8"/>
@@ -3065,43 +3377,55 @@
       <c r="K50" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" s="21" t="s">
+      <c r="L50" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M50" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="E51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="54">
+        <v>13202</v>
+      </c>
+      <c r="M51" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3136,45 +3460,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -3182,25 +3506,25 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46">
-        <v>13202</v>
-      </c>
-      <c r="K3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47">
+        <v>13202</v>
+      </c>
+      <c r="K3" s="47"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -3247,15 +3571,13 @@
       <c r="M4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="N4" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -3265,7 +3587,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>188</v>
@@ -3287,10 +3609,14 @@
         <v>19</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" s="8">
+        <v>13202</v>
+      </c>
       <c r="P5" s="8"/>
     </row>
   </sheetData>
@@ -3313,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,91 +3651,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>44</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>44</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>44</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>0</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>44</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="31">
         <v>44</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>44</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>0</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Paperless_priceLogicRetesting.xlsx
+++ b/Paperless_priceLogicRetesting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paperless" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="239">
   <si>
     <t>Created By:-</t>
   </si>
@@ -861,18 +861,10 @@
     <t>Suggestions/Enhancements</t>
   </si>
   <si>
-    <t xml:space="preserve">Deferred </t>
-  </si>
-  <si>
     <t>Lead Dev: Ranjeet</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)http://13.126.147.185/renaultewnew_uat/index.php?module=Home&amp;view=DashBoard
-2)User name-AGJA-Agra and pwd-Welcome@12345
-</t>
   </si>
   <si>
     <t xml:space="preserve">click on search bar and select Part code=PartCode123456 </t>
@@ -891,9 +883,6 @@
     <t>Service Request No- RIPC65464</t>
   </si>
   <si>
-    <t>The job card number is 14 digits or 16 digits, because field is taking only 14 digit and validation is comming for 16 digit…</t>
-  </si>
-  <si>
     <t>Service Request(Paperless)</t>
   </si>
   <si>
@@ -928,9 +917,6 @@
   </si>
   <si>
     <t>Developers Comments</t>
-  </si>
-  <si>
-    <t>Bug ID_1</t>
   </si>
   <si>
     <t xml:space="preserve">* Description =front end
@@ -980,11 +966,6 @@
   </si>
   <si>
     <t>Manager is logged into the System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)http://13.126.147.185/renaultewnew_uat/index.php?module=Home&amp;view=DashBoard
-2)User name-S00074-Anshu and pwd-t@nus1eh4J
-</t>
   </si>
   <si>
     <t xml:space="preserve">1)Enter URL
@@ -1023,10 +1004,6 @@
     <t>Price_Logic_TC_46</t>
   </si>
   <si>
-    <t>Part code=PartCode123456
-Unit value=30000</t>
-  </si>
-  <si>
     <t>Changing the unit value from 3000 to 30000</t>
   </si>
   <si>
@@ -1081,25 +1058,113 @@
     <t xml:space="preserve">Sakshi </t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>Retesting Status</t>
   </si>
   <si>
     <t>Retesting Power ID</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>TASK#13179</t>
   </si>
   <si>
     <t>Power _ID</t>
+  </si>
+  <si>
+    <t>To verify by entering job card number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter Invalid Job Card number
+2)Enter valid details in the remianing fields.             3)Click On Save Button.
+</t>
+  </si>
+  <si>
+    <t>Job Card number-1223hhggg*&amp;^%$£</t>
+  </si>
+  <si>
+    <t>Job Card number should accept only the  alphanumeric and CAPS LOCK</t>
+  </si>
+  <si>
+    <t>Part code=PartCode123456
+Unit value=30000.89</t>
+  </si>
+  <si>
+    <t>To verify by entering the data for Unit Value field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Value </t>
+  </si>
+  <si>
+    <t>Suggestion_1</t>
+  </si>
+  <si>
+    <t>Only tow can be reflect after decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price is showing correct after entering 5 of GST% . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://13.127.10.134/renaultnew_dev/index.php?module=PurchaseOrder&amp;view=List
+2)User name-AGJA-Agra and pwd-Welcome@12345
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://13.127.10.134/renaultnew_dev/index.php?module=PurchaseOrder&amp;view=List
+2)User name-S00074-Anshu and pwd-t@nus1eh4J
+</t>
+  </si>
+  <si>
+    <t>Price_Logic_TC_47</t>
+  </si>
+  <si>
+    <t>Price_Logic_TC_48</t>
+  </si>
+  <si>
+    <t>Price_Logic_TC_49</t>
+  </si>
+  <si>
+    <t>To verify the 11) Service Request Claim manager name field has been changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Request Claim manager name to be changed as Claim Adjudicator name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8) Field name is mandatory Labour Description 
+and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field name is changed to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Model name
+ Labour Description is be mandatory </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1217,7 +1282,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,12 +1329,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FF7F7F7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEF2CB"/>
-        <bgColor rgb="FFFEF2CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -1385,27 +1444,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,9 +1480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,7 +1498,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,37 +1510,31 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1549,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,19 +1573,19 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,14 +1597,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,6 +1616,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="1847850"/>
+          <a:ext cx="9609524" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,16 +1924,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
@@ -1851,7 +1947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
+      <c r="A1" s="32"/>
       <c r="B1" s="42" t="s">
         <v>30</v>
       </c>
@@ -1861,132 +1957,132 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="43">
-        <v>44170</v>
+        <v>44208</v>
       </c>
       <c r="C3" s="43"/>
-      <c r="D3" s="37" t="s">
-        <v>221</v>
+      <c r="D3" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F3" s="41"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="41"/>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="H4" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="M5" s="53" t="s">
+      <c r="L5" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1999,27 +2095,27 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M6" s="54" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2030,27 +2126,27 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M7" s="54" t="s">
+      <c r="L7" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M7" s="39" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2062,1370 +2158,1466 @@
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="6" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="L10" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="6" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="16" t="s">
+      <c r="D14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="16" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="16" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M13" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="16" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="38" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D19" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="38" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C20" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="38" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="38" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="38" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M19" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="16" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C23" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D23" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="38" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M20" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D24" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E24" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L43" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L44" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L21" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L47" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L48" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L51" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L53" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L54" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M22" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M23" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M24" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L26" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L27" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M27" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L28" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M28" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M29" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L30" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M30" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M31" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L32" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M32" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L33" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M33" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L34" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M34" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L35" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M35" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L36" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L37" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M37" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L38" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M38" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M39" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M40" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L41" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M41" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M42" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L43" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M43" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M44" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L45" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M45" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L46" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M46" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L47" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M47" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L48" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M48" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M49" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M50" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="54">
-        <v>13202</v>
-      </c>
-      <c r="M51" s="54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="39">
+        <v>13202</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3444,16 +3636,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
@@ -3461,7 +3654,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -3481,7 +3674,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="45" t="s">
@@ -3492,7 +3685,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="47" t="s">
@@ -3507,18 +3700,18 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="47">
@@ -3533,16 +3726,16 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
@@ -3566,59 +3759,30 @@
         <v>18</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>226</v>
+        <v>197</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>44170</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="O5" s="8">
-        <v>13202</v>
-      </c>
-      <c r="P5" s="8"/>
-    </row>
+    <row r="5" spans="1:16" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A3:B3"/>
@@ -3632,15 +3796,16 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,9 +3813,10 @@
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>173</v>
       </c>
@@ -3659,88 +3825,81 @@
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26">
-        <v>44</v>
-      </c>
-      <c r="C4" s="26">
-        <v>44</v>
-      </c>
-      <c r="D4" s="27">
-        <v>44</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="B4" s="23">
+        <v>49</v>
+      </c>
+      <c r="C4" s="23">
+        <v>49</v>
+      </c>
+      <c r="D4" s="24">
+        <v>49</v>
+      </c>
+      <c r="E4" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="27">
+        <v>49</v>
+      </c>
+      <c r="C5" s="27">
+        <v>49</v>
+      </c>
+      <c r="D5" s="28">
+        <v>49</v>
+      </c>
+      <c r="E5" s="29">
         <v>0</v>
       </c>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44</v>
-      </c>
-      <c r="C5" s="31">
-        <v>44</v>
-      </c>
-      <c r="D5" s="32">
-        <v>44</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30"/>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
